--- a/static/xlxsTemplate/inventory.xlsx
+++ b/static/xlxsTemplate/inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workSpace\git\iot.vue\static\xlxsTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C14AACE-6AD3-4F60-84A4-8A1A837A4DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39899C2-CFCD-4E94-A62B-E0CB6A4B14CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>批号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>库存数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,42 @@
   </si>
   <si>
     <t>${table:arr.$weightUnit}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商批号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:arr.batId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货位码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:arr.locationCode}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本厂批号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纱牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:arr.yarnsCard}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:arr.yinStatus}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,12 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -146,6 +175,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,61 +462,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="5"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="45.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/static/xlxsTemplate/inventory.xlsx
+++ b/static/xlxsTemplate/inventory.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workSpace\git\iot.vue\static\xlxsTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39899C2-CFCD-4E94-A62B-E0CB6A4B14CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -103,14 +102,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${table:arr.yinStatus}</t>
+    <t>${table:arr.$yinStatus}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,11 +460,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
